--- a/docs/resources/PhysKyt2.xlsx
+++ b/docs/resources/PhysKyt2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="262">
   <si>
     <t xml:space="preserve">Kinematics</t>
   </si>
@@ -795,13 +795,31 @@
   </si>
   <si>
     <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iadj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="General"/>
@@ -809,6 +827,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="d\-mmm"/>
+    <numFmt numFmtId="171" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1008,7 +1027,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1338,6 +1357,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1421,15 +1444,15 @@
   </sheetPr>
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
       <selection pane="bottomRight" activeCell="AE9" activeCellId="0" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="3.57"/>
@@ -1440,7 +1463,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="25" style="7" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="29" style="8" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="33" style="9" width="3.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="39" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="39" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,14 +1940,14 @@
   <dimension ref="A1:AP66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.29"/>
@@ -1945,7 +1968,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="34" style="8" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="9" width="4.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="38" style="9" width="3.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="43" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="43" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,7 +4379,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.15"/>
   </cols>
@@ -4495,7 +4518,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.01"/>
   </cols>
@@ -4652,12 +4675,12 @@
       <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="39" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="39" width="3.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="39" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="49" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="50" width="3.57"/>
@@ -5221,13 +5244,13 @@
       <selection pane="bottomRight" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="61" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="50" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="62" width="3.57"/>
@@ -6600,15 +6623,15 @@
       <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="77" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="77" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="77" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="77" width="8.86"/>
   </cols>
@@ -7332,13 +7355,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7368,6 +7391,46 @@
       <c r="D2" s="0" t="n">
         <f aca="false">C2*A2</f>
         <v>8.1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D12" s="83" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">A12*(1+C12/B12)+D12*C12</f>
+        <v>9.51282051282051</v>
       </c>
     </row>
   </sheetData>
